--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fgf7-Nrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fgf7-Nrp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Nrp1</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.253928</v>
+        <v>0.1658776666666667</v>
       </c>
       <c r="H2">
-        <v>0.761784</v>
+        <v>0.497633</v>
       </c>
       <c r="I2">
-        <v>0.0213224453904554</v>
+        <v>0.01379803068909966</v>
       </c>
       <c r="J2">
-        <v>0.0213224453904554</v>
+        <v>0.01379803068909966</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>101.7913436666667</v>
+        <v>86.89540866666668</v>
       </c>
       <c r="N2">
-        <v>305.374031</v>
+        <v>260.686226</v>
       </c>
       <c r="O2">
-        <v>0.2805454758424659</v>
+        <v>0.319779657009892</v>
       </c>
       <c r="P2">
-        <v>0.2805454758424659</v>
+        <v>0.3197796570098919</v>
       </c>
       <c r="Q2">
-        <v>25.84767231458933</v>
+        <v>14.41400763367311</v>
       </c>
       <c r="R2">
-        <v>232.629050831304</v>
+        <v>129.726068703058</v>
       </c>
       <c r="S2">
-        <v>0.005981915588190303</v>
+        <v>0.004412329521172252</v>
       </c>
       <c r="T2">
-        <v>0.005981915588190304</v>
+        <v>0.004412329521172252</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.253928</v>
+        <v>0.1658776666666667</v>
       </c>
       <c r="H3">
-        <v>0.761784</v>
+        <v>0.497633</v>
       </c>
       <c r="I3">
-        <v>0.0213224453904554</v>
+        <v>0.01379803068909966</v>
       </c>
       <c r="J3">
-        <v>0.0213224453904554</v>
+        <v>0.01379803068909966</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>163.038635</v>
       </c>
       <c r="O3">
-        <v>0.1497827149446808</v>
+        <v>0.1999969065479545</v>
       </c>
       <c r="P3">
-        <v>0.1497827149446808</v>
+        <v>0.1999969065479545</v>
       </c>
       <c r="Q3">
-        <v>13.80002483609333</v>
+        <v>9.014822783439445</v>
       </c>
       <c r="R3">
-        <v>124.20022352484</v>
+        <v>81.13340505095501</v>
       </c>
       <c r="S3">
-        <v>0.003193733759842104</v>
+        <v>0.002759563454273673</v>
       </c>
       <c r="T3">
-        <v>0.003193733759842104</v>
+        <v>0.002759563454273673</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.253928</v>
+        <v>0.1658776666666667</v>
       </c>
       <c r="H4">
-        <v>0.761784</v>
+        <v>0.497633</v>
       </c>
       <c r="I4">
-        <v>0.0213224453904554</v>
+        <v>0.01379803068909966</v>
       </c>
       <c r="J4">
-        <v>0.0213224453904554</v>
+        <v>0.01379803068909966</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>122.2542826666667</v>
+        <v>60.92601633333334</v>
       </c>
       <c r="N4">
-        <v>366.762848</v>
+        <v>182.778049</v>
       </c>
       <c r="O4">
-        <v>0.3369430510399163</v>
+        <v>0.224210932487692</v>
       </c>
       <c r="P4">
-        <v>0.3369430510399163</v>
+        <v>0.224210932487692</v>
       </c>
       <c r="Q4">
-        <v>31.04378548898133</v>
+        <v>10.10626542866856</v>
       </c>
       <c r="R4">
-        <v>279.394069400832</v>
+        <v>90.95638885801701</v>
       </c>
       <c r="S4">
-        <v>0.007184449805492042</v>
+        <v>0.003093669327296825</v>
       </c>
       <c r="T4">
-        <v>0.007184449805492043</v>
+        <v>0.003093669327296825</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.253928</v>
+        <v>0.1658776666666667</v>
       </c>
       <c r="H5">
-        <v>0.761784</v>
+        <v>0.497633</v>
       </c>
       <c r="I5">
-        <v>0.0213224453904554</v>
+        <v>0.01379803068909966</v>
       </c>
       <c r="J5">
-        <v>0.0213224453904554</v>
+        <v>0.01379803068909966</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.304706666666666</v>
+        <v>7.809668333333332</v>
       </c>
       <c r="N5">
-        <v>27.91412</v>
+        <v>23.429005</v>
       </c>
       <c r="O5">
-        <v>0.02564455154382035</v>
+        <v>0.02873998867505581</v>
       </c>
       <c r="P5">
-        <v>0.02564455154382035</v>
+        <v>0.02873998867505581</v>
       </c>
       <c r="Q5">
-        <v>2.362725554453333</v>
+        <v>1.295449560573889</v>
       </c>
       <c r="R5">
-        <v>21.26452999008</v>
+        <v>11.659046045165</v>
       </c>
       <c r="S5">
-        <v>0.0005468045498558282</v>
+        <v>0.0003965552457427967</v>
       </c>
       <c r="T5">
-        <v>0.0005468045498558282</v>
+        <v>0.0003965552457427968</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.253928</v>
+        <v>0.1658776666666667</v>
       </c>
       <c r="H6">
-        <v>0.761784</v>
+        <v>0.497633</v>
       </c>
       <c r="I6">
-        <v>0.0213224453904554</v>
+        <v>0.01379803068909966</v>
       </c>
       <c r="J6">
-        <v>0.0213224453904554</v>
+        <v>0.01379803068909966</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>75.13712200000002</v>
+        <v>61.75795633333333</v>
       </c>
       <c r="N6">
-        <v>225.411366</v>
+        <v>185.273869</v>
       </c>
       <c r="O6">
-        <v>0.2070842066291166</v>
+        <v>0.2272725152794058</v>
       </c>
       <c r="P6">
-        <v>0.2070842066291166</v>
+        <v>0.2272725152794058</v>
       </c>
       <c r="Q6">
-        <v>19.07941911521601</v>
+        <v>10.24426569467522</v>
       </c>
       <c r="R6">
-        <v>171.714772036944</v>
+        <v>92.19839125207699</v>
       </c>
       <c r="S6">
-        <v>0.00441554168707512</v>
+        <v>0.003135913140614113</v>
       </c>
       <c r="T6">
-        <v>0.00441554168707512</v>
+        <v>0.003135913140614113</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.51839566666666</v>
+        <v>11.51839566666667</v>
       </c>
       <c r="H7">
         <v>34.555187</v>
       </c>
       <c r="I7">
-        <v>0.9672047296405205</v>
+        <v>0.9581228147923823</v>
       </c>
       <c r="J7">
-        <v>0.9672047296405206</v>
+        <v>0.9581228147923824</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>101.7913436666667</v>
+        <v>86.89540866666668</v>
       </c>
       <c r="N7">
-        <v>305.374031</v>
+        <v>260.686226</v>
       </c>
       <c r="O7">
-        <v>0.2805454758424659</v>
+        <v>0.319779657009892</v>
       </c>
       <c r="P7">
-        <v>0.2805454758424659</v>
+        <v>0.3197796570098919</v>
       </c>
       <c r="Q7">
-        <v>1172.472971794311</v>
+        <v>1000.895698639363</v>
       </c>
       <c r="R7">
-        <v>10552.2567461488</v>
+        <v>9008.061287754264</v>
       </c>
       <c r="S7">
-        <v>0.2713449111140834</v>
+        <v>0.3063881850876602</v>
       </c>
       <c r="T7">
-        <v>0.2713449111140834</v>
+        <v>0.3063881850876602</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>11.51839566666666</v>
+        <v>11.51839566666667</v>
       </c>
       <c r="H8">
         <v>34.555187</v>
       </c>
       <c r="I8">
-        <v>0.9672047296405205</v>
+        <v>0.9581228147923823</v>
       </c>
       <c r="J8">
-        <v>0.9672047296405206</v>
+        <v>0.9581228147923824</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>163.038635</v>
       </c>
       <c r="O8">
-        <v>0.1497827149446808</v>
+        <v>0.1999969065479545</v>
       </c>
       <c r="P8">
-        <v>0.1497827149446808</v>
+        <v>0.1999969065479545</v>
       </c>
       <c r="Q8">
-        <v>625.9811689610827</v>
+        <v>625.9811689610829</v>
       </c>
       <c r="R8">
-        <v>5633.830520649744</v>
+        <v>5633.830520649745</v>
       </c>
       <c r="S8">
-        <v>0.1448705503128931</v>
+        <v>0.1916215990514952</v>
       </c>
       <c r="T8">
-        <v>0.1448705503128931</v>
+        <v>0.1916215990514952</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>11.51839566666666</v>
+        <v>11.51839566666667</v>
       </c>
       <c r="H9">
         <v>34.555187</v>
       </c>
       <c r="I9">
-        <v>0.9672047296405205</v>
+        <v>0.9581228147923823</v>
       </c>
       <c r="J9">
-        <v>0.9672047296405206</v>
+        <v>0.9581228147923824</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>122.2542826666667</v>
+        <v>60.92601633333334</v>
       </c>
       <c r="N9">
-        <v>366.762848</v>
+        <v>182.778049</v>
       </c>
       <c r="O9">
-        <v>0.3369430510399163</v>
+        <v>0.224210932487692</v>
       </c>
       <c r="P9">
-        <v>0.3369430510399163</v>
+        <v>0.224210932487692</v>
       </c>
       <c r="Q9">
-        <v>1408.173199699175</v>
+        <v>701.7699625211294</v>
       </c>
       <c r="R9">
-        <v>12673.55879729257</v>
+        <v>6315.929662690164</v>
       </c>
       <c r="S9">
-        <v>0.3258929125853143</v>
+        <v>0.2148216097423322</v>
       </c>
       <c r="T9">
-        <v>0.3258929125853144</v>
+        <v>0.2148216097423322</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,14 +1021,14 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
       <c r="E10">
         <v>3</v>
       </c>
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>11.51839566666666</v>
+        <v>11.51839566666667</v>
       </c>
       <c r="H10">
         <v>34.555187</v>
       </c>
       <c r="I10">
-        <v>0.9672047296405205</v>
+        <v>0.9581228147923823</v>
       </c>
       <c r="J10">
-        <v>0.9672047296405206</v>
+        <v>0.9581228147923824</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.304706666666666</v>
+        <v>7.809668333333332</v>
       </c>
       <c r="N10">
-        <v>27.91412</v>
+        <v>23.429005</v>
       </c>
       <c r="O10">
-        <v>0.02564455154382035</v>
+        <v>0.02873998867505581</v>
       </c>
       <c r="P10">
-        <v>0.02564455154382035</v>
+        <v>0.02873998867505581</v>
       </c>
       <c r="Q10">
-        <v>107.1752929489378</v>
+        <v>89.95484988877055</v>
       </c>
       <c r="R10">
-        <v>964.5776365404399</v>
+        <v>809.593648998935</v>
       </c>
       <c r="S10">
-        <v>0.02480353154269315</v>
+        <v>0.02753643884644567</v>
       </c>
       <c r="T10">
-        <v>0.02480353154269316</v>
+        <v>0.02753643884644567</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,10 +1083,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>11.51839566666666</v>
+        <v>11.51839566666667</v>
       </c>
       <c r="H11">
         <v>34.555187</v>
       </c>
       <c r="I11">
-        <v>0.9672047296405205</v>
+        <v>0.9581228147923823</v>
       </c>
       <c r="J11">
-        <v>0.9672047296405206</v>
+        <v>0.9581228147923824</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>75.13712200000002</v>
+        <v>61.75795633333333</v>
       </c>
       <c r="N11">
-        <v>225.411366</v>
+        <v>185.273869</v>
       </c>
       <c r="O11">
-        <v>0.2070842066291166</v>
+        <v>0.2272725152794058</v>
       </c>
       <c r="P11">
-        <v>0.2070842066291166</v>
+        <v>0.2272725152794058</v>
       </c>
       <c r="Q11">
-        <v>865.4591004506048</v>
+        <v>711.3525766120559</v>
       </c>
       <c r="R11">
-        <v>7789.131904055443</v>
+        <v>6402.173189508503</v>
       </c>
       <c r="S11">
-        <v>0.2002928240855364</v>
+        <v>0.217754982064449</v>
       </c>
       <c r="T11">
-        <v>0.2002928240855364</v>
+        <v>0.217754982064449</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1160,16 +1160,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.1366293333333334</v>
+        <v>0.1594243333333333</v>
       </c>
       <c r="H12">
-        <v>0.409888</v>
+        <v>0.478273</v>
       </c>
       <c r="I12">
-        <v>0.01147282496902401</v>
+        <v>0.01326122972505393</v>
       </c>
       <c r="J12">
-        <v>0.01147282496902401</v>
+        <v>0.01326122972505393</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>101.7913436666667</v>
+        <v>86.89540866666668</v>
       </c>
       <c r="N12">
-        <v>305.374031</v>
+        <v>260.686226</v>
       </c>
       <c r="O12">
-        <v>0.2805454758424659</v>
+        <v>0.319779657009892</v>
       </c>
       <c r="P12">
-        <v>0.2805454758424659</v>
+        <v>0.3197796570098919</v>
       </c>
       <c r="Q12">
-        <v>13.90768342428089</v>
+        <v>13.85324259641089</v>
       </c>
       <c r="R12">
-        <v>125.169150818528</v>
+        <v>124.679183367698</v>
       </c>
       <c r="S12">
-        <v>0.003218649140192164</v>
+        <v>0.004240671493007129</v>
       </c>
       <c r="T12">
-        <v>0.003218649140192164</v>
+        <v>0.004240671493007128</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1222,16 +1222,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.1366293333333334</v>
+        <v>0.1594243333333333</v>
       </c>
       <c r="H13">
-        <v>0.409888</v>
+        <v>0.478273</v>
       </c>
       <c r="I13">
-        <v>0.01147282496902401</v>
+        <v>0.01326122972505393</v>
       </c>
       <c r="J13">
-        <v>0.01147282496902401</v>
+        <v>0.01326122972505393</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>163.038635</v>
       </c>
       <c r="O13">
-        <v>0.1497827149446808</v>
+        <v>0.1999969065479545</v>
       </c>
       <c r="P13">
-        <v>0.1497827149446808</v>
+        <v>0.1999969065479545</v>
       </c>
       <c r="Q13">
-        <v>7.42528666920889</v>
+        <v>8.664108564150556</v>
       </c>
       <c r="R13">
-        <v>66.82758002288</v>
+        <v>77.976977077355</v>
       </c>
       <c r="S13">
-        <v>0.001718430871945539</v>
+        <v>0.002652204922032567</v>
       </c>
       <c r="T13">
-        <v>0.001718430871945539</v>
+        <v>0.002652204922032567</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,13 +1269,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -1284,16 +1284,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.1366293333333334</v>
+        <v>0.1594243333333333</v>
       </c>
       <c r="H14">
-        <v>0.409888</v>
+        <v>0.478273</v>
       </c>
       <c r="I14">
-        <v>0.01147282496902401</v>
+        <v>0.01326122972505393</v>
       </c>
       <c r="J14">
-        <v>0.01147282496902401</v>
+        <v>0.01326122972505393</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>122.2542826666667</v>
+        <v>60.92601633333334</v>
       </c>
       <c r="N14">
-        <v>366.762848</v>
+        <v>182.778049</v>
       </c>
       <c r="O14">
-        <v>0.3369430510399163</v>
+        <v>0.224210932487692</v>
       </c>
       <c r="P14">
-        <v>0.3369430510399163</v>
+        <v>0.224210932487692</v>
       </c>
       <c r="Q14">
-        <v>16.70352113789156</v>
+        <v>9.713089536597446</v>
       </c>
       <c r="R14">
-        <v>150.331690241024</v>
+        <v>87.417805829377</v>
       </c>
       <c r="S14">
-        <v>0.003865688649109883</v>
+        <v>0.00297331268258784</v>
       </c>
       <c r="T14">
-        <v>0.003865688649109882</v>
+        <v>0.00297331268258784</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,13 +1331,13 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -1346,16 +1346,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.1366293333333334</v>
+        <v>0.1594243333333333</v>
       </c>
       <c r="H15">
-        <v>0.409888</v>
+        <v>0.478273</v>
       </c>
       <c r="I15">
-        <v>0.01147282496902401</v>
+        <v>0.01326122972505393</v>
       </c>
       <c r="J15">
-        <v>0.01147282496902401</v>
+        <v>0.01326122972505393</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>9.304706666666666</v>
+        <v>7.809668333333332</v>
       </c>
       <c r="N15">
-        <v>27.91412</v>
+        <v>23.429005</v>
       </c>
       <c r="O15">
-        <v>0.02564455154382035</v>
+        <v>0.02873998867505581</v>
       </c>
       <c r="P15">
-        <v>0.02564455154382035</v>
+        <v>0.02873998867505581</v>
       </c>
       <c r="Q15">
-        <v>1.271295868728889</v>
+        <v>1.245051167596111</v>
       </c>
       <c r="R15">
-        <v>11.44166281856</v>
+        <v>11.205460508365</v>
       </c>
       <c r="S15">
-        <v>0.0002942154512713653</v>
+        <v>0.0003811275921153633</v>
       </c>
       <c r="T15">
-        <v>0.0002942154512713652</v>
+        <v>0.0003811275921153634</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,10 +1393,10 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
         <v>26</v>
@@ -1408,16 +1408,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.1366293333333334</v>
+        <v>0.1594243333333333</v>
       </c>
       <c r="H16">
-        <v>0.409888</v>
+        <v>0.478273</v>
       </c>
       <c r="I16">
-        <v>0.01147282496902401</v>
+        <v>0.01326122972505393</v>
       </c>
       <c r="J16">
-        <v>0.01147282496902401</v>
+        <v>0.01326122972505393</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,338 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>75.13712200000002</v>
+        <v>61.75795633333333</v>
       </c>
       <c r="N16">
-        <v>225.411366</v>
+        <v>185.273869</v>
       </c>
       <c r="O16">
-        <v>0.2070842066291166</v>
+        <v>0.2272725152794058</v>
       </c>
       <c r="P16">
-        <v>0.2070842066291166</v>
+        <v>0.2272725152794058</v>
       </c>
       <c r="Q16">
-        <v>10.26593488744534</v>
+        <v>9.845721016470778</v>
       </c>
       <c r="R16">
-        <v>92.39341398700803</v>
+        <v>88.611489148237</v>
       </c>
       <c r="S16">
-        <v>0.002375840856505056</v>
+        <v>0.003013913035311029</v>
       </c>
       <c r="T16">
-        <v>0.002375840856505055</v>
+        <v>0.003013913035311029</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.1781386666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.534416</v>
+      </c>
+      <c r="I17">
+        <v>0.01481792479346402</v>
+      </c>
+      <c r="J17">
+        <v>0.01481792479346403</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>86.89540866666668</v>
+      </c>
+      <c r="N17">
+        <v>260.686226</v>
+      </c>
+      <c r="O17">
+        <v>0.319779657009892</v>
+      </c>
+      <c r="P17">
+        <v>0.3197796570098919</v>
+      </c>
+      <c r="Q17">
+        <v>15.47943223933511</v>
+      </c>
+      <c r="R17">
+        <v>139.314890154016</v>
+      </c>
+      <c r="S17">
+        <v>0.0047384709080523</v>
+      </c>
+      <c r="T17">
+        <v>0.0047384709080523</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.1781386666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.534416</v>
+      </c>
+      <c r="I18">
+        <v>0.01481792479346402</v>
+      </c>
+      <c r="J18">
+        <v>0.01481792479346403</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>54.34621166666667</v>
+      </c>
+      <c r="N18">
+        <v>163.038635</v>
+      </c>
+      <c r="O18">
+        <v>0.1999969065479545</v>
+      </c>
+      <c r="P18">
+        <v>0.1999969065479545</v>
+      </c>
+      <c r="Q18">
+        <v>9.681161684684445</v>
+      </c>
+      <c r="R18">
+        <v>87.13045516216</v>
+      </c>
+      <c r="S18">
+        <v>0.002963539120153043</v>
+      </c>
+      <c r="T18">
+        <v>0.002963539120153043</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.1781386666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.534416</v>
+      </c>
+      <c r="I19">
+        <v>0.01481792479346402</v>
+      </c>
+      <c r="J19">
+        <v>0.01481792479346403</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>60.92601633333334</v>
+      </c>
+      <c r="N19">
+        <v>182.778049</v>
+      </c>
+      <c r="O19">
+        <v>0.224210932487692</v>
+      </c>
+      <c r="P19">
+        <v>0.224210932487692</v>
+      </c>
+      <c r="Q19">
+        <v>10.85327931493156</v>
+      </c>
+      <c r="R19">
+        <v>97.67951383438401</v>
+      </c>
+      <c r="S19">
+        <v>0.003322340735475059</v>
+      </c>
+      <c r="T19">
+        <v>0.003322340735475059</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.1781386666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.534416</v>
+      </c>
+      <c r="I20">
+        <v>0.01481792479346402</v>
+      </c>
+      <c r="J20">
+        <v>0.01481792479346403</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>7.809668333333332</v>
+      </c>
+      <c r="N20">
+        <v>23.429005</v>
+      </c>
+      <c r="O20">
+        <v>0.02873998867505581</v>
+      </c>
+      <c r="P20">
+        <v>0.02873998867505581</v>
+      </c>
+      <c r="Q20">
+        <v>1.391203904008889</v>
+      </c>
+      <c r="R20">
+        <v>12.52083513608</v>
+      </c>
+      <c r="S20">
+        <v>0.0004258669907519848</v>
+      </c>
+      <c r="T20">
+        <v>0.0004258669907519849</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.1781386666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.534416</v>
+      </c>
+      <c r="I21">
+        <v>0.01481792479346402</v>
+      </c>
+      <c r="J21">
+        <v>0.01481792479346403</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>61.75795633333333</v>
+      </c>
+      <c r="N21">
+        <v>185.273869</v>
+      </c>
+      <c r="O21">
+        <v>0.2272725152794058</v>
+      </c>
+      <c r="P21">
+        <v>0.2272725152794058</v>
+      </c>
+      <c r="Q21">
+        <v>11.00147999727822</v>
+      </c>
+      <c r="R21">
+        <v>99.01331997550399</v>
+      </c>
+      <c r="S21">
+        <v>0.003367707039031639</v>
+      </c>
+      <c r="T21">
+        <v>0.003367707039031639</v>
       </c>
     </row>
   </sheetData>
